--- a/teaching/traditional_assets/database/data/united_arab_emirates/united_arab_emirates_recreation.xlsx
+++ b/teaching/traditional_assets/database/data/united_arab_emirates/united_arab_emirates_recreation.xlsx
@@ -591,22 +591,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.5441289332310054</v>
+        <v>-0.5910326086956522</v>
       </c>
       <c r="H2">
-        <v>-0.5441289332310054</v>
+        <v>-0.5910326086956522</v>
       </c>
       <c r="I2">
-        <v>-1.289377308243407</v>
+        <v>-1.546195652173913</v>
       </c>
       <c r="J2">
-        <v>-1.289377308243407</v>
+        <v>-1.546195652173913</v>
       </c>
       <c r="K2">
-        <v>-684.9</v>
+        <v>-326.3</v>
       </c>
       <c r="L2">
-        <v>-5.256331542594014</v>
+        <v>-4.433423913043478</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -630,73 +630,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>314.4</v>
+        <v>143.8</v>
       </c>
       <c r="V2">
-        <v>0.8109362909466081</v>
+        <v>0.7420020639834881</v>
       </c>
       <c r="W2">
-        <v>-0.4434731934731934</v>
+        <v>-0.3937017374517375</v>
       </c>
       <c r="X2">
-        <v>0.1524983274942274</v>
+        <v>0.2372606039529525</v>
       </c>
       <c r="Y2">
-        <v>-0.5959715209674208</v>
+        <v>-0.6309623414046899</v>
       </c>
       <c r="Z2">
-        <v>0.05173448873784767</v>
+        <v>0.03577852316367702</v>
       </c>
       <c r="AA2">
-        <v>-0.06670527583215488</v>
+        <v>-0.05532059695688105</v>
       </c>
       <c r="AB2">
-        <v>0.04436347218979769</v>
+        <v>0.0378954162365609</v>
       </c>
       <c r="AC2">
-        <v>-0.1110687480219526</v>
+        <v>-0.09321601319344194</v>
       </c>
       <c r="AD2">
-        <v>1542.7</v>
+        <v>1589.2</v>
       </c>
       <c r="AE2">
-        <v>3.929316320579773</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1546.62931632058</v>
+        <v>1589.2</v>
       </c>
       <c r="AG2">
-        <v>1232.22931632058</v>
+        <v>1445.4</v>
       </c>
       <c r="AH2">
-        <v>0.7995687721171125</v>
+        <v>0.8913067863151991</v>
       </c>
       <c r="AI2">
-        <v>0.6510946487417402</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="AJ2">
-        <v>0.7606685698604425</v>
+        <v>0.8817715959004393</v>
       </c>
       <c r="AK2">
-        <v>0.5978708340356838</v>
+        <v>0.7455896007428041</v>
       </c>
       <c r="AL2">
-        <v>111.1</v>
+        <v>113.6</v>
       </c>
       <c r="AM2">
-        <v>104.16</v>
+        <v>113.6</v>
       </c>
       <c r="AN2">
-        <v>-27.48930862437633</v>
+        <v>-46.74117647058824</v>
       </c>
       <c r="AO2">
-        <v>-1.541854185418542</v>
+        <v>-1.001760563380282</v>
       </c>
       <c r="AP2">
-        <v>-21.95704412545581</v>
+        <v>-42.51176470588236</v>
       </c>
       <c r="AQ2">
-        <v>-1.644585253456221</v>
+        <v>-1.001760563380282</v>
       </c>
     </row>
     <row r="3">
@@ -716,22 +716,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>-0.5441289332310054</v>
+        <v>-0.5910326086956522</v>
       </c>
       <c r="H3">
-        <v>-0.5441289332310054</v>
+        <v>-0.5910326086956522</v>
       </c>
       <c r="I3">
-        <v>-1.289377308243407</v>
+        <v>-1.546195652173913</v>
       </c>
       <c r="J3">
-        <v>-1.289377308243407</v>
+        <v>-1.546195652173913</v>
       </c>
       <c r="K3">
-        <v>-684.9</v>
+        <v>-326.3</v>
       </c>
       <c r="L3">
-        <v>-5.256331542594014</v>
+        <v>-4.433423913043478</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -755,73 +755,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>314.4</v>
+        <v>143.8</v>
       </c>
       <c r="V3">
-        <v>0.8109362909466081</v>
+        <v>0.7420020639834881</v>
       </c>
       <c r="W3">
-        <v>-0.4434731934731934</v>
+        <v>-0.3937017374517375</v>
       </c>
       <c r="X3">
-        <v>0.1524983274942274</v>
+        <v>0.2372606039529525</v>
       </c>
       <c r="Y3">
-        <v>-0.5959715209674208</v>
+        <v>-0.6309623414046899</v>
       </c>
       <c r="Z3">
-        <v>0.05173448873784767</v>
+        <v>0.03577852316367702</v>
       </c>
       <c r="AA3">
-        <v>-0.06670527583215488</v>
+        <v>-0.05532059695688105</v>
       </c>
       <c r="AB3">
-        <v>0.04436347218979769</v>
+        <v>0.0378954162365609</v>
       </c>
       <c r="AC3">
-        <v>-0.1110687480219526</v>
+        <v>-0.09321601319344194</v>
       </c>
       <c r="AD3">
-        <v>1542.7</v>
+        <v>1589.2</v>
       </c>
       <c r="AE3">
-        <v>3.929316320579773</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1546.62931632058</v>
+        <v>1589.2</v>
       </c>
       <c r="AG3">
-        <v>1232.22931632058</v>
+        <v>1445.4</v>
       </c>
       <c r="AH3">
-        <v>0.7995687721171125</v>
+        <v>0.8913067863151991</v>
       </c>
       <c r="AI3">
-        <v>0.6510946487417402</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="AJ3">
-        <v>0.7606685698604425</v>
+        <v>0.8817715959004393</v>
       </c>
       <c r="AK3">
-        <v>0.5978708340356838</v>
+        <v>0.7455896007428041</v>
       </c>
       <c r="AL3">
-        <v>111.1</v>
+        <v>113.6</v>
       </c>
       <c r="AM3">
-        <v>104.16</v>
+        <v>113.6</v>
       </c>
       <c r="AN3">
-        <v>-27.48930862437633</v>
+        <v>-46.74117647058824</v>
       </c>
       <c r="AO3">
-        <v>-1.541854185418542</v>
+        <v>-1.001760563380282</v>
       </c>
       <c r="AP3">
-        <v>-21.95704412545581</v>
+        <v>-42.51176470588236</v>
       </c>
       <c r="AQ3">
-        <v>-1.644585253456221</v>
+        <v>-1.001760563380282</v>
       </c>
     </row>
   </sheetData>
